--- a/Consumer/L'Oreal.xlsx
+++ b/Consumer/L'Oreal.xlsx
@@ -5,24 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60526CB6-7CA9-EA41-AC13-3BC73F0DBDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7286D7B9-52F4-334D-96A6-80C7A0CC8ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$Z$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$Z$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$Z$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -965,18 +957,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1011,12 +991,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1034,6 +1008,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2413,9 +2405,9 @@
     <v>Powered by Refinitiv</v>
     <v>442.6</v>
     <v>300.45</v>
-    <v>0.63219999999999998</v>
-    <v>13.05</v>
-    <v>3.0381000000000002E-2</v>
+    <v>0.63749999999999996</v>
+    <v>-1.65</v>
+    <v>-3.9170000000000003E-3</v>
     <v>EUR</v>
     <v>L'Oreal SA is a France-based cosmetics company. The Company owns a wide range of brands organized into four division: Consumer Products, L’Oreal Luxe, Professionals Products and Active Cosmetics. They include L’Oreal Paris, Maybelline New York, Garnier, Lancme, Yves Saint Laurent, Giorgio Armani, Kiehl’s, Krastase, La Roche-Posay and SkinCeuticals, among others. It offers a wide range of products grouped into six business segments: Skincare, Makeup, Haircare, Hair Coloring, Fragrances and Other. Skincare offering includes facial skincare, face cleaners, body care and sun protection products. The Company owns stores and ecommerce websites. It is active globally.</v>
     <v>87369</v>
@@ -2423,24 +2415,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>41 rue Martre, Clichy Cedex, CLICHY, ILE-DE-FRANCE, 92117 FR</v>
-    <v>442.6</v>
+    <v>420.35</v>
     <v>Personal &amp; Household Products &amp; Services</v>
     <v>Stock</v>
-    <v>45037.666666666664</v>
+    <v>45062.666666666664</v>
     <v>0</v>
-    <v>428.3</v>
-    <v>237217300000</v>
+    <v>414.8</v>
+    <v>225747700000</v>
     <v>L'Oreal SA</v>
     <v>L'Oreal SA</v>
-    <v>428.85</v>
-    <v>40.337499999999999</v>
-    <v>429.55</v>
-    <v>442.6</v>
+    <v>418.55</v>
+    <v>39.398400000000002</v>
+    <v>421.2</v>
+    <v>419.55</v>
     <v>535963100</v>
     <v>OR</v>
     <v>L'Oreal SA (XPAR:OR)</v>
-    <v>441451</v>
-    <v>352180</v>
+    <v>267812</v>
+    <v>297310</v>
     <v>1963</v>
   </rv>
   <rv s="2">
@@ -3008,10 +3000,10 @@
   <dimension ref="A1:AI118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI127" sqref="AI127"/>
+      <selection pane="bottomRight" activeCell="AA123" sqref="AA123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4567,15 +4559,15 @@
       </c>
       <c r="AG16" s="30">
         <f>AH101/Z3</f>
-        <v>6.2000412957454927</v>
+        <v>5.9002655473254473</v>
       </c>
       <c r="AH16" s="30">
         <f>AH101/Z28</f>
-        <v>41.568937721235059</v>
+        <v>39.55905442820594</v>
       </c>
       <c r="AI16" s="31">
         <f>AH101/Z106</f>
-        <v>48.067374521286297</v>
+        <v>45.743287876638774</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10035,10 +10027,10 @@
       <c r="Z83" s="1">
         <v>-865400000</v>
       </c>
-      <c r="AG83" s="33" t="s">
+      <c r="AG83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AH83" s="34"/>
+      <c r="AH83" s="62"/>
     </row>
     <row r="84" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10119,10 +10111,10 @@
       <c r="Z84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG84" s="35" t="s">
+      <c r="AG84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AH84" s="36"/>
+      <c r="AH84" s="64"/>
     </row>
     <row r="85" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10464,10 +10456,10 @@
       <c r="Z88" s="1">
         <v>-1343200000</v>
       </c>
-      <c r="AG88" s="37" t="s">
+      <c r="AG88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AH88" s="38">
+      <c r="AH88" s="34">
         <f>AH85/(AH86+AH87)</f>
         <v>1.3608692574502725E-2</v>
       </c>
@@ -10750,10 +10742,10 @@
       <c r="Z91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG91" s="37" t="s">
+      <c r="AG91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AH91" s="38">
+      <c r="AH91" s="34">
         <f>AH89/AH90</f>
         <v>0.24957296402386145</v>
       </c>
@@ -10837,10 +10829,10 @@
       <c r="Z92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG92" s="39" t="s">
+      <c r="AG92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AH92" s="40">
+      <c r="AH92" s="36">
         <f>AH88*(1-AH91)</f>
         <v>1.0212330832194567E-2</v>
       </c>
@@ -10924,10 +10916,10 @@
       <c r="Z93" s="1">
         <v>-133700000</v>
       </c>
-      <c r="AG93" s="35" t="s">
+      <c r="AG93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AH93" s="36"/>
+      <c r="AH93" s="64"/>
     </row>
     <row r="94" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11011,7 +11003,7 @@
       <c r="AG94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AH94" s="41">
+      <c r="AH94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -11097,9 +11089,9 @@
       <c r="AG95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AH95" s="42" cm="1">
+      <c r="AH95" s="38" cm="1">
         <f t="array" ref="AH95">_FV(A1,"Beta")</f>
-        <v>0.63219999999999998</v>
+        <v>0.63749999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11184,7 +11176,7 @@
       <c r="AG96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AH96" s="41">
+      <c r="AH96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11267,12 +11259,12 @@
       <c r="Z97" s="1">
         <v>-502300000</v>
       </c>
-      <c r="AG97" s="39" t="s">
+      <c r="AG97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AH97" s="40">
+      <c r="AH97" s="36">
         <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>6.8166210000000005E-2</v>
+        <v>6.8394375000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11354,10 +11346,10 @@
       <c r="Z98" s="1">
         <v>-2689900000</v>
       </c>
-      <c r="AG98" s="35" t="s">
+      <c r="AG98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AH98" s="36"/>
+      <c r="AH98" s="64"/>
     </row>
     <row r="99" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11525,12 +11517,12 @@
       <c r="Z100" s="10">
         <v>-4079900000</v>
       </c>
-      <c r="AG100" s="37" t="s">
+      <c r="AG100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AH100" s="38">
+      <c r="AH100" s="34">
         <f>AH99/AH103</f>
-        <v>2.3266950249950489E-2</v>
+        <v>2.4420210156937058E-2</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11615,9 +11607,9 @@
       <c r="AG101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AH101" s="43" cm="1">
+      <c r="AH101" s="39" cm="1">
         <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>237217300000</v>
+        <v>225747700000</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11699,12 +11691,12 @@
       <c r="Z102" s="10">
         <v>-96100000</v>
       </c>
-      <c r="AG102" s="37" t="s">
+      <c r="AG102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AH102" s="38">
+      <c r="AH102" s="34">
         <f>AH101/AH103</f>
-        <v>0.97673304975004949</v>
+        <v>0.97557978984306293</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11786,12 +11778,12 @@
       <c r="Z103" s="1">
         <v>2713800000</v>
       </c>
-      <c r="AG103" s="39" t="s">
+      <c r="AG103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AH103" s="44">
+      <c r="AH103" s="40">
         <f>AH99+AH101</f>
-        <v>242868100000</v>
+        <v>231398500000</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11873,10 +11865,10 @@
       <c r="Z104" s="11">
         <v>2617700000</v>
       </c>
-      <c r="AG104" s="35" t="s">
+      <c r="AG104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AH104" s="36"/>
+      <c r="AH104" s="64"/>
     </row>
     <row r="105" spans="1:34" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11990,7 +11982,7 @@
       </c>
       <c r="AH105" s="26">
         <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>6.6817799976611025E-2</v>
+        <v>6.6973557254062011E-2</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12072,33 +12064,33 @@
       <c r="Z106" s="1">
         <v>4935100000</v>
       </c>
-      <c r="AA106" s="45">
+      <c r="AA106" s="41">
         <f>Z106*(1+$AH$106)</f>
         <v>5216473530.2720871</v>
       </c>
-      <c r="AB106" s="45">
+      <c r="AB106" s="41">
         <f t="shared" ref="AB106:AE106" si="9">AA106*(1+$AH$106)</f>
         <v>5513889504.1699924</v>
       </c>
-      <c r="AC106" s="45">
+      <c r="AC106" s="41">
         <f t="shared" si="9"/>
         <v>5828262577.7284851</v>
       </c>
-      <c r="AD106" s="45">
+      <c r="AD106" s="41">
         <f t="shared" si="9"/>
         <v>6160559555.8744507</v>
       </c>
-      <c r="AE106" s="45">
+      <c r="AE106" s="41">
         <f t="shared" si="9"/>
         <v>6511802365.6833363</v>
       </c>
-      <c r="AF106" s="46" t="s">
+      <c r="AF106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AG106" s="47" t="s">
+      <c r="AG106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AH106" s="48">
+      <c r="AH106" s="44">
         <f>(SUM(AA4:AE4)/5)</f>
         <v>5.7014757608171519E-2</v>
       </c>
@@ -12130,151 +12122,151 @@
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
       <c r="Z107" s="13"/>
-      <c r="AA107" s="46"/>
-      <c r="AB107" s="46"/>
-      <c r="AC107" s="46"/>
-      <c r="AD107" s="46"/>
-      <c r="AE107" s="49">
+      <c r="AA107" s="42"/>
+      <c r="AB107" s="42"/>
+      <c r="AC107" s="42"/>
+      <c r="AD107" s="42"/>
+      <c r="AE107" s="45">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>159611395830.4494</v>
-      </c>
-      <c r="AF107" s="50" t="s">
+        <v>159019103013.46884</v>
+      </c>
+      <c r="AF107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="AG107" s="51" t="s">
+      <c r="AG107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="AH107" s="52">
+      <c r="AH107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA108" s="49">
+      <c r="AA108" s="45">
         <f t="shared" ref="AA108:AC108" si="10">AA107+AA106</f>
         <v>5216473530.2720871</v>
       </c>
-      <c r="AB108" s="49">
+      <c r="AB108" s="45">
         <f t="shared" si="10"/>
         <v>5513889504.1699924</v>
       </c>
-      <c r="AC108" s="49">
+      <c r="AC108" s="45">
         <f t="shared" si="10"/>
         <v>5828262577.7284851</v>
       </c>
-      <c r="AD108" s="49">
+      <c r="AD108" s="45">
         <f>AD107+AD106</f>
         <v>6160559555.8744507</v>
       </c>
-      <c r="AE108" s="49">
+      <c r="AE108" s="45">
         <f>AE107+AE106</f>
-        <v>166123198196.13275</v>
-      </c>
-      <c r="AF108" s="50" t="s">
+        <v>165530905379.15219</v>
+      </c>
+      <c r="AF108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AG108" s="53" t="s">
+      <c r="AG108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AH108" s="54">
+      <c r="AH108" s="50">
         <f>AH105</f>
-        <v>6.6817799976611025E-2</v>
+        <v>6.6973557254062011E-2</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="55" t="s">
+      <c r="AA109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="AB109" s="56"/>
+      <c r="AB109" s="60"/>
     </row>
     <row r="110" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA110" s="57" t="s">
+      <c r="AA110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="AB110" s="43">
+      <c r="AB110" s="39">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>139511694012.8819</v>
+        <v>138988643706.25623</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA111" s="57" t="s">
+      <c r="AA111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="AB111" s="43">
+      <c r="AB111" s="39">
         <f>Z40</f>
         <v>2640800000</v>
       </c>
     </row>
     <row r="112" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA112" s="57" t="s">
+      <c r="AA112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="AB112" s="43">
+      <c r="AB112" s="39">
         <f>AH99</f>
         <v>5650800000</v>
       </c>
     </row>
     <row r="113" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA113" s="57" t="s">
+      <c r="AA113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="AB113" s="43">
+      <c r="AB113" s="39">
         <f>AB110+AB111-AB112</f>
-        <v>136501694012.8819</v>
+        <v>135978643706.25623</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA114" s="57" t="s">
+      <c r="AA114" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="AB114" s="58">
+      <c r="AB114" s="52">
         <f>Z34*(1+(5*AF16))</f>
         <v>512895574.26334906</v>
       </c>
     </row>
     <row r="115" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA115" s="59" t="s">
+      <c r="AA115" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="AB115" s="60">
+      <c r="AB115" s="54">
         <f>AB113/AB114</f>
-        <v>266.13934855829802</v>
+        <v>265.1195497281426</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA116" s="57" t="s">
+      <c r="AA116" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="AB116" s="61" cm="1">
+      <c r="AB116" s="55" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>442.6</v>
+        <v>419.55</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA117" s="62" t="s">
+      <c r="AA117" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AB117" s="63">
+      <c r="AB117" s="57">
         <f>AB115/AB116-1</f>
-        <v>-0.3986910335329914</v>
+        <v>-0.36808592604423174</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA118" s="62" t="s">
+      <c r="AA118" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="AB118" s="64" t="str">
+      <c r="AB118" s="58" t="str">
         <f>IF(AB115&gt;AB116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AA109:AB109"/>
     <mergeCell ref="AG83:AH83"/>
     <mergeCell ref="AG84:AH84"/>
     <mergeCell ref="AG93:AH93"/>
     <mergeCell ref="AG98:AH98"/>
     <mergeCell ref="AG104:AH104"/>
-    <mergeCell ref="AA109:AB109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/OR.PA" display="ROIC.AI | OR.PA" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/L'Oreal.xlsx
+++ b/Consumer/L'Oreal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7286D7B9-52F4-334D-96A6-80C7A0CC8ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A3BD9A-191F-134A-8E62-527DE6AABA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2404,10 +2404,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>442.6</v>
-    <v>300.45</v>
-    <v>0.63749999999999996</v>
-    <v>-1.65</v>
-    <v>-3.9170000000000003E-3</v>
+    <v>300.7</v>
+    <v>0.65469999999999995</v>
+    <v>0.1</v>
+    <v>2.4610000000000002E-4</v>
     <v>EUR</v>
     <v>L'Oreal SA is a France-based cosmetics company. The Company owns a wide range of brands organized into four division: Consumer Products, L’Oreal Luxe, Professionals Products and Active Cosmetics. They include L’Oreal Paris, Maybelline New York, Garnier, Lancme, Yves Saint Laurent, Giorgio Armani, Kiehl’s, Krastase, La Roche-Posay and SkinCeuticals, among others. It offers a wide range of products grouped into six business segments: Skincare, Makeup, Haircare, Hair Coloring, Fragrances and Other. Skincare offering includes facial skincare, face cleaners, body care and sun protection products. The Company owns stores and ecommerce websites. It is active globally.</v>
     <v>87369</v>
@@ -2415,24 +2415,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>41 rue Martre, Clichy Cedex, CLICHY, ILE-DE-FRANCE, 92117 FR</v>
-    <v>420.35</v>
+    <v>407.55</v>
     <v>Personal &amp; Household Products &amp; Services</v>
     <v>Stock</v>
-    <v>45062.666666666664</v>
+    <v>45100.666666666664</v>
     <v>0</v>
-    <v>414.8</v>
-    <v>225747700000</v>
+    <v>402.85</v>
+    <v>217761800000</v>
     <v>L'Oreal SA</v>
     <v>L'Oreal SA</v>
-    <v>418.55</v>
-    <v>39.398400000000002</v>
-    <v>421.2</v>
-    <v>419.55</v>
+    <v>405.1</v>
+    <v>38.154200000000003</v>
+    <v>406.3</v>
+    <v>406.4</v>
     <v>535963100</v>
     <v>OR</v>
     <v>L'Oreal SA (XPAR:OR)</v>
-    <v>267812</v>
-    <v>297310</v>
+    <v>241006</v>
+    <v>352730</v>
     <v>1963</v>
   </rv>
   <rv s="2">
@@ -3000,10 +3000,10 @@
   <dimension ref="A1:AI118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA123" sqref="AA123"/>
+      <selection pane="bottomRight" activeCell="AB98" sqref="AB98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4559,15 +4559,15 @@
       </c>
       <c r="AG16" s="30">
         <f>AH101/Z3</f>
-        <v>5.9002655473254473</v>
+        <v>5.6915416904073641</v>
       </c>
       <c r="AH16" s="30">
         <f>AH101/Z28</f>
-        <v>39.55905442820594</v>
+        <v>38.159639715417235</v>
       </c>
       <c r="AI16" s="31">
         <f>AH101/Z106</f>
-        <v>45.743287876638774</v>
+        <v>44.125103847946342</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11091,7 +11091,7 @@
       </c>
       <c r="AH95" s="38" cm="1">
         <f t="array" ref="AH95">_FV(A1,"Beta")</f>
-        <v>0.63749999999999996</v>
+        <v>0.65469999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11264,7 +11264,7 @@
       </c>
       <c r="AH97" s="36">
         <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>6.8394375000000007E-2</v>
+        <v>6.9134835000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11522,7 +11522,7 @@
       </c>
       <c r="AH100" s="34">
         <f>AH99/AH103</f>
-        <v>2.4420210156937058E-2</v>
+        <v>2.5293112384887871E-2</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11609,7 +11609,7 @@
       </c>
       <c r="AH101" s="39" cm="1">
         <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>225747700000</v>
+        <v>217761800000</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="AH102" s="34">
         <f>AH101/AH103</f>
-        <v>0.97557978984306293</v>
+        <v>0.97470688761511215</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="AH103" s="40">
         <f>AH99+AH101</f>
-        <v>231398500000</v>
+        <v>223412600000</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11982,7 +11982,7 @@
       </c>
       <c r="AH105" s="26">
         <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>6.6973557254062011E-2</v>
+        <v>6.7644501480084676E-2</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12128,7 +12128,7 @@
       <c r="AD107" s="42"/>
       <c r="AE107" s="45">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>159019103013.46884</v>
+        <v>156517187284.80176</v>
       </c>
       <c r="AF107" s="46" t="s">
         <v>148</v>
@@ -12159,7 +12159,7 @@
       </c>
       <c r="AE108" s="45">
         <f>AE107+AE106</f>
-        <v>165530905379.15219</v>
+        <v>163028989650.48511</v>
       </c>
       <c r="AF108" s="46" t="s">
         <v>144</v>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="AH108" s="50">
         <f>AH105</f>
-        <v>6.6973557254062011E-2</v>
+        <v>6.7644501480084676E-2</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="AB110" s="39">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>138988643706.25623</v>
+        <v>136779251617.21573</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12211,7 +12211,7 @@
       </c>
       <c r="AB113" s="39">
         <f>AB110+AB111-AB112</f>
-        <v>135978643706.25623</v>
+        <v>133769251617.21573</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12229,7 +12229,7 @@
       </c>
       <c r="AB115" s="54">
         <f>AB113/AB114</f>
-        <v>265.1195497281426</v>
+        <v>260.81186566942603</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12238,7 +12238,7 @@
       </c>
       <c r="AB116" s="55" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>419.55</v>
+        <v>406.4</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12247,7 +12247,7 @@
       </c>
       <c r="AB117" s="57">
         <f>AB115/AB116-1</f>
-        <v>-0.36808592604423174</v>
+        <v>-0.3582385195142076</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
